--- a/Ventilacia_Atributy.xlsx
+++ b/Ventilacia_Atributy.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bakalar\VentilClient\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bakalar\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B8C70B-B16E-48CE-B137-A2F386338972}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="54">
   <si>
     <t>gInputAI_1_Sup</t>
   </si>
@@ -658,6 +659,12 @@
   </si>
   <si>
     <t>Teplota</t>
+  </si>
+  <si>
+    <t>fAlarm_AftRecoSens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alarm flag for after recovery air temp sensor malfunction </t>
   </si>
 </sst>
 </file>
@@ -1026,10 +1033,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1426,6 +1433,29 @@
         <v>33</v>
       </c>
     </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
